--- a/CookBook_and_code-master/py4e/dist/testExcel1.xlsx
+++ b/CookBook_and_code-master/py4e/dist/testExcel1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13065" windowWidth="28695" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13065" windowWidth="28695" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="dd1" sheetId="1" state="visible" r:id="rId1"/>
@@ -432,7 +432,7 @@
   </sheetPr>
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:B28"/>
     </sheetView>
   </sheetViews>

--- a/CookBook_and_code-master/py4e/dist/testExcel1.xlsx
+++ b/CookBook_and_code-master/py4e/dist/testExcel1.xlsx
@@ -790,7 +790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,261 +812,6 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>挂证项目</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>熊宜莽</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>43010419740112303x</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中信湘雅生殖与遗传专科医院有限公司新院建设项目（湖南省孕前基因检测技术应用示范第二分中心建设项目）</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>文盛</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>14273319920408543x</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中信湘雅生殖与遗传专科医院有限公司新院建设项目（湖南省孕前基因检测技术应用示范第二分中心建设项目）</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>刘思贤</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>430903199202196013</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中信湘雅生殖与遗传专科医院有限公司新院建设项目（湖南省孕前基因检测技术应用示范第二分中心建设项目）</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>张良</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>430105198909061512</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中信湘雅生殖与遗传专科医院有限公司新院建设项目（湖南省孕前基因检测技术应用示范第二分中心建设项目）</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>杨欢</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>430105199011240017</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中信湘雅生殖与遗传专科医院有限公司新院建设项目（湖南省孕前基因检测技术应用示范第二分中心建设项目）</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>熊宜莽</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>43010419740112303x</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中信湘雅生殖与遗传专科医院有限公司新院建设项目（湖南省孕前基因检测技术应用示范第二分中心建设项目）</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>文盛</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>14273319920408543x</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中信湘雅生殖与遗传专科医院有限公司新院建设项目（湖南省孕前基因检测技术应用示范第二分中心建设项目）</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>刘思贤</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>430903199202196013</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中信湘雅生殖与遗传专科医院有限公司新院建设项目（湖南省孕前基因检测技术应用示范第二分中心建设项目）</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>张良</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>430105198909061512</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中信湘雅生殖与遗传专科医院有限公司新院建设项目（湖南省孕前基因检测技术应用示范第二分中心建设项目）</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>杨欢</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>430105199011240017</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中信湘雅生殖与遗传专科医院有限公司新院建设项目（湖南省孕前基因检测技术应用示范第二分中心建设项目）</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>熊宜莽</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>43010419740112303x</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中信湘雅生殖与遗传专科医院有限公司新院建设项目（湖南省孕前基因检测技术应用示范第二分中心建设项目）</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>文盛</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>14273319920408543x</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中信湘雅生殖与遗传专科医院有限公司新院建设项目（湖南省孕前基因检测技术应用示范第二分中心建设项目）</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>刘思贤</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>430903199202196013</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中信湘雅生殖与遗传专科医院有限公司新院建设项目（湖南省孕前基因检测技术应用示范第二分中心建设项目）</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>张良</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>430105198909061512</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中信湘雅生殖与遗传专科医院有限公司新院建设项目（湖南省孕前基因检测技术应用示范第二分中心建设项目）</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>杨欢</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>430105199011240017</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中信湘雅生殖与遗传专科医院有限公司新院建设项目（湖南省孕前基因检测技术应用示范第二分中心建设项目）</t>
         </is>
       </c>
     </row>
@@ -1081,7 +826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,7 +871,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>熊宜x</t>
+          <t>熊宜莽</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1143,12 +888,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>刘思贤</t>
+          <t>文盛</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>430901199202196013</t>
+          <t>14273319920408543x</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1160,12 +905,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>文盛</t>
+          <t>刘思贤</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14256119920408543x</t>
+          <t>430903199202196013</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1177,12 +922,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>刘思贤</t>
+          <t>张良</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>430453199202196013</t>
+          <t>430105198909061512</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1194,12 +939,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>熊宜x</t>
+          <t>杨欢</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>43010419740112303x</t>
+          <t>430105199011240017</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1211,12 +956,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>刘思贤</t>
+          <t>熊宜x</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>430901199202196013</t>
+          <t>43010419740112303x</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1228,12 +973,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>文盛</t>
+          <t>刘思贤</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14256119920408543x</t>
+          <t>430901199202196013</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1245,12 +990,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>刘思贤</t>
+          <t>文盛</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>430453199202196013</t>
+          <t>14256119920408543x</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1262,12 +1007,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>熊宜x</t>
+          <t>刘思贤</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>43010419740112303x</t>
+          <t>430453199202196013</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1279,12 +1024,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>刘思贤</t>
+          <t>熊宜莽</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>430901199202196013</t>
+          <t>43010419740112303x</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1301,7 +1046,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14256119920408543x</t>
+          <t>14273319920408543x</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1318,10 +1063,265 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>430903199202196013</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>未挂证</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>张良</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>430105198909061512</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>未挂证</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>杨欢</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>430105199011240017</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>未挂证</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>熊宜x</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>43010419740112303x</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>未挂证</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>刘思贤</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>430901199202196013</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>未挂证</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>文盛</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>14256119920408543x</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>未挂证</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>刘思贤</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>430453199202196013</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>未挂证</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>熊宜莽</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>43010419740112303x</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>未挂证</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>文盛</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>14273319920408543x</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>未挂证</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>刘思贤</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>430903199202196013</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>未挂证</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>张良</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>430105198909061512</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>未挂证</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>杨欢</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>430105199011240017</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>未挂证</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>熊宜x</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>43010419740112303x</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>未挂证</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>刘思贤</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>430901199202196013</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>未挂证</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>文盛</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>14256119920408543x</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>未挂证</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>刘思贤</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>430453199202196013</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>未挂证</t>
         </is>
